--- a/1.Supplementary/Supplementary Data 1.xlsx
+++ b/1.Supplementary/Supplementary Data 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkuhk-my.sharepoint.com/personal/iguibert_hku_hk/Documents/Research/Publications/2021-SIBER-CLAMS/1.June24_clams_paper/1_For_publication/18. Communication Biology/Revision/1_Final_Revision_Acceptance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{7F74C37F-2BD8-47AE-A300-9E5DFFFF4138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7E51579-B5CF-1F41-922D-7F6834F23B56}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{7F74C37F-2BD8-47AE-A300-9E5DFFFF4138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791E50AC-77FA-C540-B43C-BFB904577D60}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="2440" windowWidth="29440" windowHeight="16220" activeTab="1" xr2:uid="{85601775-D17C-475B-AB93-3CA077378AFD}"/>
+    <workbookView xWindow="12700" yWindow="-18640" windowWidth="29440" windowHeight="16220" activeTab="2" xr2:uid="{85601775-D17C-475B-AB93-3CA077378AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary _ Guibertetal_SIA" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="42">
   <si>
     <t>Species</t>
   </si>
@@ -148,16 +148,6 @@
     <t>Ecological traits used in the phylogennetic analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Supplementary 2: 
-Stable Isotope data of 6 giant clams species (Tridacna gigas, Tridacna derasa, Hippopus porcellanus, Hippopus hippopus, Tridacna maxima and Tridacna squamosa) and of particulate organic matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Supplementary 2: 
-Distance to the ellipses centroids (DEC), delta 15N mean, delta 13C mean, Provinces, Growth rate average, Maximum depth, maximum shell lenght, Trophic score average, standard deviation (sd) values and credible intervals (CI) of 6 giant clams species (Tridacna gigas, Tridacna derasa, Hippopus porcellanus, Hippopus hippopus, Tridacna maxima and Tridacna squamosa).</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -165,6 +155,19 @@
   </si>
   <si>
     <t>Growth rates (mm/month)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Supplementary data 1: 
+Distance to the ellipses centroids (DEC), delta 15N mean, delta 13C mean, Provinces, Growth rate average, Maximum depth, maximum shell lenght, Trophic score average, standard deviation (sd) values and credible intervals (CI) of 6 giant clams species (Tridacna gigas, Tridacna derasa, Hippopus porcellanus, Hippopus hippopus, Tridacna maxima and Tridacna squamosa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Supplementary data 1: 
+Stable Isotope data of 6 giant clams species (Tridacna gigas, Tridacna derasa, Hippopus porcellanus, Hippopus hippopus, Tridacna maxima and Tridacna squamosa) and of particulate organic matter</t>
+  </si>
+  <si>
+    <t>Supplementary data 1: Growth rates</t>
   </si>
 </sst>
 </file>
@@ -681,7 +684,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -699,6 +702,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -757,6 +763,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,7 +1069,7 @@
   <dimension ref="A1:F285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1070,7 +1080,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="139" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6750,11 +6760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6A4A71-A143-4E7E-8240-B48ACA19631A}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6779,7 +6786,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7246,10 +7253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BC2751-56A7-FB41-93F7-E7531DD6B443}">
-  <dimension ref="A3:D9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7259,6 +7266,14 @@
     <col min="4" max="4" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
@@ -7267,10 +7282,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7284,7 +7299,7 @@
         <v>3.34</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7348,8 +7363,9 @@
       <c r="D9" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D4:D9"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="https://doi.org/10.5281/zenodo.6255655" xr:uid="{31ADB881-5BB8-834F-BBBB-D391538D849F}"/>
